--- a/temp_exports/data_summary_KOTA_MAGELANG_2025.xlsx
+++ b/temp_exports/data_summary_KOTA_MAGELANG_2025.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Alokasi</t>
   </si>
@@ -92,6 +92,112 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>KOTA MAGELANG</t>
+  </si>
+  <si>
+    <t>MAGELANG TENGAH</t>
+  </si>
+  <si>
+    <t>3371020304590001</t>
+  </si>
+  <si>
+    <t>ANWARI</t>
+  </si>
+  <si>
+    <t>RTA000001715</t>
+  </si>
+  <si>
+    <t>3371024604500001</t>
+  </si>
+  <si>
+    <t>MARSIAH</t>
+  </si>
+  <si>
+    <t>3371020210640001</t>
+  </si>
+  <si>
+    <t>SUTOMO</t>
+  </si>
+  <si>
+    <t>3371022609770001</t>
+  </si>
+  <si>
+    <t>YASIN YUSUF</t>
+  </si>
+  <si>
+    <t>3371011710580001</t>
+  </si>
+  <si>
+    <t>BUDIJONO</t>
+  </si>
+  <si>
+    <t>3371011307460001</t>
+  </si>
+  <si>
+    <t>DIDIK SLAMET</t>
+  </si>
+  <si>
+    <t>3371010101610001</t>
+  </si>
+  <si>
+    <t>MINDAR</t>
+  </si>
+  <si>
+    <t>3371010104810001</t>
+  </si>
+  <si>
+    <t>MUHDI PURWANTO</t>
+  </si>
+  <si>
+    <t>3371013112590004</t>
+  </si>
+  <si>
+    <t>MUJI SLAMET AL BARONI</t>
+  </si>
+  <si>
+    <t>3371016603810002</t>
+  </si>
+  <si>
+    <t>SRI HARYANI</t>
+  </si>
+  <si>
+    <t>3371010404490001</t>
+  </si>
+  <si>
+    <t>SUTIMAN</t>
+  </si>
+  <si>
+    <t>3371012508620003</t>
+  </si>
+  <si>
+    <t>SUWARDI</t>
+  </si>
+  <si>
+    <t>3371012105630002</t>
+  </si>
+  <si>
+    <t>TATAG SUGIRI SYAMSU</t>
+  </si>
+  <si>
+    <t>3371013009500001</t>
+  </si>
+  <si>
+    <t>TUKIRAN ERAN SUJARWO</t>
+  </si>
+  <si>
+    <t>3371011003670003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YATMANTO
+</t>
+  </si>
+  <si>
+    <t>1.150</t>
+  </si>
+  <si>
+    <t>1.575</t>
   </si>
 </sst>
 </file>
@@ -1019,200 +1125,3155 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>200</v>
+      </c>
+      <c r="K10">
+        <v>200</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="K11">
+        <v>50</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>150</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>150</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>150</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>50</v>
+      </c>
+      <c r="K14">
+        <v>150</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>200</v>
+      </c>
+      <c r="G15">
+        <v>200</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>200</v>
+      </c>
+      <c r="K15">
+        <v>200</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>250</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>250</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>25</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>50</v>
+      </c>
+      <c r="K19">
+        <v>50</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AR5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AS5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AT5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AU5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AV5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AW5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AX5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AY5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AZ5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="BA5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="BB5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="BC5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="BD5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="BE5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="BF5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="BG5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="BH5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="BI5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="BJ5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="BK5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="BL5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="BM5" s="6" t="s">
+      <c r="F20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BC20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM20" s="6" t="s">
         <v>26</v>
       </c>
     </row>
